--- a/YSteam開発資料まとめ/設計書12日までに/products/内部設計書_2_1_ウエルカム画面＿よう.xlsx
+++ b/YSteam開発資料まとめ/設計書12日までに/products/内部設計書_2_1_ウエルカム画面＿よう.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\it研修学习期间的成果\新建文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\設計書12日までに\products\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB0C9B1-3BD0-42A2-BBBD-4C3F1376BC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A31775F-E5E8-4573-A60F-77ABDA611505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
   <si>
     <t>システム名</t>
   </si>
@@ -512,6 +512,13 @@
   </si>
   <si>
     <t>①レコード存在しならば、ユーザーの情報（ユーザー名、最高挑戦スコア記録）をUserクラスで返す</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陽</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1135,7 +1142,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1214,6 +1221,27 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1232,28 +1260,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1262,43 +1269,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1352,37 +1352,47 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="56" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="TableStyleLight1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1730,8 +1740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1744,102 +1754,104 @@
   <sheetData>
     <row r="1" spans="1:1025" ht="18" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="72" t="s">
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="73" t="s">
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="73"/>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="73"/>
-      <c r="AI1" s="73"/>
-      <c r="AJ1" s="73"/>
-      <c r="AK1" s="73"/>
-      <c r="AL1" s="73"/>
-      <c r="AM1" s="73"/>
-      <c r="AN1" s="73"/>
-      <c r="AO1" s="73"/>
-      <c r="AP1" s="73"/>
-      <c r="AQ1" s="73"/>
-      <c r="AR1" s="73"/>
-      <c r="AS1" s="73"/>
-      <c r="AT1" s="73"/>
-      <c r="AU1" s="73"/>
-      <c r="AV1" s="73"/>
-      <c r="AW1" s="73"/>
-      <c r="AX1" s="73"/>
-      <c r="AY1" s="73"/>
-      <c r="AZ1" s="73"/>
-      <c r="BA1" s="73"/>
-      <c r="BB1" s="73"/>
-      <c r="BC1" s="73"/>
-      <c r="BD1" s="73"/>
-      <c r="BE1" s="73"/>
-      <c r="BF1" s="73"/>
-      <c r="BG1" s="73"/>
-      <c r="BH1" s="73"/>
-      <c r="BI1" s="73"/>
-      <c r="BJ1" s="73"/>
-      <c r="BK1" s="73"/>
-      <c r="BL1" s="74" t="s">
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="76"/>
+      <c r="AJ1" s="76"/>
+      <c r="AK1" s="76"/>
+      <c r="AL1" s="76"/>
+      <c r="AM1" s="76"/>
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="76"/>
+      <c r="AP1" s="76"/>
+      <c r="AQ1" s="76"/>
+      <c r="AR1" s="76"/>
+      <c r="AS1" s="76"/>
+      <c r="AT1" s="76"/>
+      <c r="AU1" s="76"/>
+      <c r="AV1" s="76"/>
+      <c r="AW1" s="76"/>
+      <c r="AX1" s="76"/>
+      <c r="AY1" s="76"/>
+      <c r="AZ1" s="76"/>
+      <c r="BA1" s="76"/>
+      <c r="BB1" s="76"/>
+      <c r="BC1" s="76"/>
+      <c r="BD1" s="76"/>
+      <c r="BE1" s="76"/>
+      <c r="BF1" s="76"/>
+      <c r="BG1" s="76"/>
+      <c r="BH1" s="76"/>
+      <c r="BI1" s="76"/>
+      <c r="BJ1" s="76"/>
+      <c r="BK1" s="76"/>
+      <c r="BL1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="74"/>
-      <c r="BN1" s="74"/>
-      <c r="BO1" s="74"/>
-      <c r="BP1" s="75"/>
-      <c r="BQ1" s="75"/>
-      <c r="BR1" s="75"/>
-      <c r="BS1" s="75"/>
-      <c r="BT1" s="75"/>
-      <c r="BU1" s="75"/>
-      <c r="BV1" s="75"/>
-      <c r="BW1" s="75"/>
-      <c r="BX1" s="56" t="s">
+      <c r="BM1" s="77"/>
+      <c r="BN1" s="77"/>
+      <c r="BO1" s="77"/>
+      <c r="BP1" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="BQ1" s="78"/>
+      <c r="BR1" s="78"/>
+      <c r="BS1" s="78"/>
+      <c r="BT1" s="78"/>
+      <c r="BU1" s="78"/>
+      <c r="BV1" s="78"/>
+      <c r="BW1" s="78"/>
+      <c r="BX1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="56"/>
-      <c r="BZ1" s="56"/>
-      <c r="CA1" s="56"/>
-      <c r="CB1" s="63"/>
-      <c r="CC1" s="63"/>
-      <c r="CD1" s="63"/>
-      <c r="CE1" s="63"/>
-      <c r="CF1" s="63"/>
-      <c r="CG1" s="63"/>
-      <c r="CH1" s="63"/>
-      <c r="CI1" s="63"/>
+      <c r="BY1" s="81"/>
+      <c r="BZ1" s="81"/>
+      <c r="CA1" s="81"/>
+      <c r="CB1" s="66"/>
+      <c r="CC1" s="66"/>
+      <c r="CD1" s="66"/>
+      <c r="CE1" s="66"/>
+      <c r="CF1" s="66"/>
+      <c r="CG1" s="66"/>
+      <c r="CH1" s="66"/>
+      <c r="CI1" s="66"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -2781,102 +2793,104 @@
     </row>
     <row r="2" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="65" t="s">
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="66" t="s">
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="66"/>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66"/>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="66"/>
-      <c r="AV2" s="66"/>
-      <c r="AW2" s="66"/>
-      <c r="AX2" s="66"/>
-      <c r="AY2" s="66"/>
-      <c r="AZ2" s="66"/>
-      <c r="BA2" s="66"/>
-      <c r="BB2" s="66"/>
-      <c r="BC2" s="66"/>
-      <c r="BD2" s="66"/>
-      <c r="BE2" s="66"/>
-      <c r="BF2" s="66"/>
-      <c r="BG2" s="66"/>
-      <c r="BH2" s="66"/>
-      <c r="BI2" s="66"/>
-      <c r="BJ2" s="66"/>
-      <c r="BK2" s="66"/>
-      <c r="BL2" s="67" t="s">
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="69"/>
+      <c r="AJ2" s="69"/>
+      <c r="AK2" s="69"/>
+      <c r="AL2" s="69"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="69"/>
+      <c r="AP2" s="69"/>
+      <c r="AQ2" s="69"/>
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69"/>
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="69"/>
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69"/>
+      <c r="BB2" s="69"/>
+      <c r="BC2" s="69"/>
+      <c r="BD2" s="69"/>
+      <c r="BE2" s="69"/>
+      <c r="BF2" s="69"/>
+      <c r="BG2" s="69"/>
+      <c r="BH2" s="69"/>
+      <c r="BI2" s="69"/>
+      <c r="BJ2" s="69"/>
+      <c r="BK2" s="69"/>
+      <c r="BL2" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="67"/>
-      <c r="BN2" s="67"/>
-      <c r="BO2" s="67"/>
-      <c r="BP2" s="68"/>
-      <c r="BQ2" s="68"/>
-      <c r="BR2" s="68"/>
-      <c r="BS2" s="68"/>
-      <c r="BT2" s="68"/>
-      <c r="BU2" s="68"/>
-      <c r="BV2" s="68"/>
-      <c r="BW2" s="68"/>
-      <c r="BX2" s="69" t="s">
+      <c r="BM2" s="70"/>
+      <c r="BN2" s="70"/>
+      <c r="BO2" s="70"/>
+      <c r="BP2" s="71">
+        <v>44512</v>
+      </c>
+      <c r="BQ2" s="71"/>
+      <c r="BR2" s="71"/>
+      <c r="BS2" s="71"/>
+      <c r="BT2" s="71"/>
+      <c r="BU2" s="71"/>
+      <c r="BV2" s="71"/>
+      <c r="BW2" s="71"/>
+      <c r="BX2" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="69"/>
-      <c r="BZ2" s="69"/>
-      <c r="CA2" s="69"/>
-      <c r="CB2" s="70"/>
-      <c r="CC2" s="70"/>
-      <c r="CD2" s="70"/>
-      <c r="CE2" s="70"/>
-      <c r="CF2" s="70"/>
-      <c r="CG2" s="70"/>
-      <c r="CH2" s="70"/>
-      <c r="CI2" s="70"/>
+      <c r="BY2" s="72"/>
+      <c r="BZ2" s="72"/>
+      <c r="CA2" s="72"/>
+      <c r="CB2" s="73"/>
+      <c r="CC2" s="73"/>
+      <c r="CD2" s="73"/>
+      <c r="CE2" s="73"/>
+      <c r="CF2" s="73"/>
+      <c r="CG2" s="73"/>
+      <c r="CH2" s="73"/>
+      <c r="CI2" s="73"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -3906,100 +3920,100 @@
     </row>
     <row r="4" spans="1:1025" ht="18" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="57" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57" t="s">
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="Z4" s="57"/>
-      <c r="AA4" s="57"/>
-      <c r="AB4" s="57"/>
-      <c r="AC4" s="57"/>
-      <c r="AD4" s="57"/>
-      <c r="AE4" s="57"/>
-      <c r="AF4" s="57"/>
-      <c r="AG4" s="57"/>
-      <c r="AH4" s="57"/>
-      <c r="AI4" s="57"/>
-      <c r="AJ4" s="57"/>
-      <c r="AK4" s="57"/>
-      <c r="AL4" s="57"/>
-      <c r="AM4" s="57"/>
-      <c r="AN4" s="57"/>
-      <c r="AO4" s="57"/>
-      <c r="AP4" s="57"/>
-      <c r="AQ4" s="57"/>
-      <c r="AR4" s="57"/>
-      <c r="AS4" s="35" t="s">
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="79"/>
+      <c r="AB4" s="79"/>
+      <c r="AC4" s="79"/>
+      <c r="AD4" s="79"/>
+      <c r="AE4" s="79"/>
+      <c r="AF4" s="79"/>
+      <c r="AG4" s="79"/>
+      <c r="AH4" s="79"/>
+      <c r="AI4" s="79"/>
+      <c r="AJ4" s="79"/>
+      <c r="AK4" s="79"/>
+      <c r="AL4" s="79"/>
+      <c r="AM4" s="79"/>
+      <c r="AN4" s="79"/>
+      <c r="AO4" s="79"/>
+      <c r="AP4" s="79"/>
+      <c r="AQ4" s="79"/>
+      <c r="AR4" s="79"/>
+      <c r="AS4" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AT4" s="35"/>
-      <c r="AU4" s="35"/>
-      <c r="AV4" s="35"/>
-      <c r="AW4" s="35"/>
-      <c r="AX4" s="35"/>
-      <c r="AY4" s="35"/>
-      <c r="AZ4" s="35"/>
-      <c r="BA4" s="35"/>
-      <c r="BB4" s="35"/>
-      <c r="BC4" s="35"/>
-      <c r="BD4" s="35"/>
-      <c r="BE4" s="35"/>
-      <c r="BF4" s="35"/>
-      <c r="BG4" s="35"/>
-      <c r="BH4" s="35"/>
-      <c r="BI4" s="35"/>
-      <c r="BJ4" s="35"/>
-      <c r="BK4" s="35"/>
-      <c r="BL4" s="35"/>
-      <c r="BM4" s="35"/>
-      <c r="BN4" s="35"/>
-      <c r="BO4" s="35"/>
-      <c r="BP4" s="35"/>
-      <c r="BQ4" s="35"/>
-      <c r="BR4" s="35"/>
-      <c r="BS4" s="35"/>
-      <c r="BT4" s="35"/>
-      <c r="BU4" s="35"/>
-      <c r="BV4" s="35"/>
-      <c r="BW4" s="35"/>
-      <c r="BX4" s="35"/>
-      <c r="BY4" s="35"/>
-      <c r="BZ4" s="35"/>
-      <c r="CA4" s="35"/>
-      <c r="CB4" s="35"/>
-      <c r="CC4" s="35"/>
-      <c r="CD4" s="35"/>
-      <c r="CE4" s="35"/>
-      <c r="CF4" s="35"/>
-      <c r="CG4" s="35"/>
-      <c r="CH4" s="35"/>
-      <c r="CI4" s="35"/>
+      <c r="AT4" s="42"/>
+      <c r="AU4" s="42"/>
+      <c r="AV4" s="42"/>
+      <c r="AW4" s="42"/>
+      <c r="AX4" s="42"/>
+      <c r="AY4" s="42"/>
+      <c r="AZ4" s="42"/>
+      <c r="BA4" s="42"/>
+      <c r="BB4" s="42"/>
+      <c r="BC4" s="42"/>
+      <c r="BD4" s="42"/>
+      <c r="BE4" s="42"/>
+      <c r="BF4" s="42"/>
+      <c r="BG4" s="42"/>
+      <c r="BH4" s="42"/>
+      <c r="BI4" s="42"/>
+      <c r="BJ4" s="42"/>
+      <c r="BK4" s="42"/>
+      <c r="BL4" s="42"/>
+      <c r="BM4" s="42"/>
+      <c r="BN4" s="42"/>
+      <c r="BO4" s="42"/>
+      <c r="BP4" s="42"/>
+      <c r="BQ4" s="42"/>
+      <c r="BR4" s="42"/>
+      <c r="BS4" s="42"/>
+      <c r="BT4" s="42"/>
+      <c r="BU4" s="42"/>
+      <c r="BV4" s="42"/>
+      <c r="BW4" s="42"/>
+      <c r="BX4" s="42"/>
+      <c r="BY4" s="42"/>
+      <c r="BZ4" s="42"/>
+      <c r="CA4" s="42"/>
+      <c r="CB4" s="42"/>
+      <c r="CC4" s="42"/>
+      <c r="CD4" s="42"/>
+      <c r="CE4" s="42"/>
+      <c r="CF4" s="42"/>
+      <c r="CG4" s="42"/>
+      <c r="CH4" s="42"/>
+      <c r="CI4" s="42"/>
       <c r="CJ4" s="2"/>
       <c r="CK4" s="2"/>
       <c r="CL4" s="2"/>
@@ -4941,100 +4955,100 @@
     </row>
     <row r="5" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="36">
+      <c r="B5" s="31">
         <v>1</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="46" t="s">
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="46"/>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="46" t="s">
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="80"/>
+      <c r="X5" s="80"/>
+      <c r="Y5" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="46"/>
-      <c r="AB5" s="46"/>
-      <c r="AC5" s="46"/>
-      <c r="AD5" s="46"/>
-      <c r="AE5" s="46"/>
-      <c r="AF5" s="46"/>
-      <c r="AG5" s="46"/>
-      <c r="AH5" s="46"/>
-      <c r="AI5" s="46"/>
-      <c r="AJ5" s="46"/>
-      <c r="AK5" s="46"/>
-      <c r="AL5" s="46"/>
-      <c r="AM5" s="46"/>
-      <c r="AN5" s="46"/>
-      <c r="AO5" s="46"/>
-      <c r="AP5" s="46"/>
-      <c r="AQ5" s="46"/>
-      <c r="AR5" s="46"/>
-      <c r="AS5" s="47" t="s">
+      <c r="Z5" s="80"/>
+      <c r="AA5" s="80"/>
+      <c r="AB5" s="80"/>
+      <c r="AC5" s="80"/>
+      <c r="AD5" s="80"/>
+      <c r="AE5" s="80"/>
+      <c r="AF5" s="80"/>
+      <c r="AG5" s="80"/>
+      <c r="AH5" s="80"/>
+      <c r="AI5" s="80"/>
+      <c r="AJ5" s="80"/>
+      <c r="AK5" s="80"/>
+      <c r="AL5" s="80"/>
+      <c r="AM5" s="80"/>
+      <c r="AN5" s="80"/>
+      <c r="AO5" s="80"/>
+      <c r="AP5" s="80"/>
+      <c r="AQ5" s="80"/>
+      <c r="AR5" s="80"/>
+      <c r="AS5" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="AT5" s="47"/>
-      <c r="AU5" s="47"/>
-      <c r="AV5" s="47"/>
-      <c r="AW5" s="47"/>
-      <c r="AX5" s="47"/>
-      <c r="AY5" s="47"/>
-      <c r="AZ5" s="47"/>
-      <c r="BA5" s="47"/>
-      <c r="BB5" s="47"/>
-      <c r="BC5" s="47"/>
-      <c r="BD5" s="47"/>
-      <c r="BE5" s="47"/>
-      <c r="BF5" s="47"/>
-      <c r="BG5" s="47"/>
-      <c r="BH5" s="47"/>
-      <c r="BI5" s="47"/>
-      <c r="BJ5" s="47"/>
-      <c r="BK5" s="47"/>
-      <c r="BL5" s="47"/>
-      <c r="BM5" s="47"/>
-      <c r="BN5" s="47"/>
-      <c r="BO5" s="47"/>
-      <c r="BP5" s="47"/>
-      <c r="BQ5" s="47"/>
-      <c r="BR5" s="47"/>
-      <c r="BS5" s="47"/>
-      <c r="BT5" s="47"/>
-      <c r="BU5" s="47"/>
-      <c r="BV5" s="47"/>
-      <c r="BW5" s="47"/>
-      <c r="BX5" s="47"/>
-      <c r="BY5" s="47"/>
-      <c r="BZ5" s="47"/>
-      <c r="CA5" s="47"/>
-      <c r="CB5" s="47"/>
-      <c r="CC5" s="47"/>
-      <c r="CD5" s="47"/>
-      <c r="CE5" s="47"/>
-      <c r="CF5" s="47"/>
-      <c r="CG5" s="47"/>
-      <c r="CH5" s="47"/>
-      <c r="CI5" s="47"/>
+      <c r="AT5" s="89"/>
+      <c r="AU5" s="89"/>
+      <c r="AV5" s="89"/>
+      <c r="AW5" s="89"/>
+      <c r="AX5" s="89"/>
+      <c r="AY5" s="89"/>
+      <c r="AZ5" s="89"/>
+      <c r="BA5" s="89"/>
+      <c r="BB5" s="89"/>
+      <c r="BC5" s="89"/>
+      <c r="BD5" s="89"/>
+      <c r="BE5" s="89"/>
+      <c r="BF5" s="89"/>
+      <c r="BG5" s="89"/>
+      <c r="BH5" s="89"/>
+      <c r="BI5" s="89"/>
+      <c r="BJ5" s="89"/>
+      <c r="BK5" s="89"/>
+      <c r="BL5" s="89"/>
+      <c r="BM5" s="89"/>
+      <c r="BN5" s="89"/>
+      <c r="BO5" s="89"/>
+      <c r="BP5" s="89"/>
+      <c r="BQ5" s="89"/>
+      <c r="BR5" s="89"/>
+      <c r="BS5" s="89"/>
+      <c r="BT5" s="89"/>
+      <c r="BU5" s="89"/>
+      <c r="BV5" s="89"/>
+      <c r="BW5" s="89"/>
+      <c r="BX5" s="89"/>
+      <c r="BY5" s="89"/>
+      <c r="BZ5" s="89"/>
+      <c r="CA5" s="89"/>
+      <c r="CB5" s="89"/>
+      <c r="CC5" s="89"/>
+      <c r="CD5" s="89"/>
+      <c r="CE5" s="89"/>
+      <c r="CF5" s="89"/>
+      <c r="CG5" s="89"/>
+      <c r="CH5" s="89"/>
+      <c r="CI5" s="89"/>
       <c r="CJ5" s="2"/>
       <c r="CK5" s="2"/>
       <c r="CL5" s="2"/>
@@ -6063,201 +6077,201 @@
       <c r="CI6" s="5"/>
     </row>
     <row r="7" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31" t="s">
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="32" t="s">
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="33"/>
-      <c r="AC7" s="33"/>
-      <c r="AD7" s="33"/>
-      <c r="AE7" s="33"/>
-      <c r="AF7" s="33"/>
-      <c r="AG7" s="33"/>
-      <c r="AH7" s="34"/>
-      <c r="AI7" s="32" t="s">
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="40"/>
+      <c r="AE7" s="40"/>
+      <c r="AF7" s="40"/>
+      <c r="AG7" s="40"/>
+      <c r="AH7" s="41"/>
+      <c r="AI7" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="AJ7" s="33"/>
-      <c r="AK7" s="33"/>
-      <c r="AL7" s="33"/>
-      <c r="AM7" s="33"/>
-      <c r="AN7" s="33"/>
-      <c r="AO7" s="33"/>
-      <c r="AP7" s="33"/>
-      <c r="AQ7" s="33"/>
-      <c r="AR7" s="34"/>
-      <c r="AS7" s="35" t="s">
+      <c r="AJ7" s="40"/>
+      <c r="AK7" s="40"/>
+      <c r="AL7" s="40"/>
+      <c r="AM7" s="40"/>
+      <c r="AN7" s="40"/>
+      <c r="AO7" s="40"/>
+      <c r="AP7" s="40"/>
+      <c r="AQ7" s="40"/>
+      <c r="AR7" s="41"/>
+      <c r="AS7" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="AT7" s="35"/>
-      <c r="AU7" s="35"/>
-      <c r="AV7" s="35"/>
-      <c r="AW7" s="35"/>
-      <c r="AX7" s="35"/>
-      <c r="AY7" s="35"/>
-      <c r="AZ7" s="35"/>
-      <c r="BA7" s="35"/>
-      <c r="BB7" s="35"/>
-      <c r="BC7" s="35"/>
-      <c r="BD7" s="35"/>
-      <c r="BE7" s="35"/>
-      <c r="BF7" s="35"/>
-      <c r="BG7" s="35"/>
-      <c r="BH7" s="35"/>
-      <c r="BI7" s="35"/>
-      <c r="BJ7" s="35"/>
-      <c r="BK7" s="35"/>
-      <c r="BL7" s="35"/>
-      <c r="BM7" s="35"/>
-      <c r="BN7" s="35"/>
-      <c r="BO7" s="35"/>
-      <c r="BP7" s="35"/>
-      <c r="BQ7" s="35"/>
-      <c r="BR7" s="35"/>
-      <c r="BS7" s="35"/>
-      <c r="BT7" s="35"/>
-      <c r="BU7" s="35"/>
-      <c r="BV7" s="35"/>
-      <c r="BW7" s="35"/>
-      <c r="BX7" s="35"/>
-      <c r="BY7" s="35"/>
-      <c r="BZ7" s="35"/>
-      <c r="CA7" s="35"/>
-      <c r="CB7" s="35"/>
-      <c r="CC7" s="35"/>
-      <c r="CD7" s="35"/>
-      <c r="CE7" s="35"/>
-      <c r="CF7" s="35"/>
-      <c r="CG7" s="35"/>
-      <c r="CH7" s="35"/>
-      <c r="CI7" s="35"/>
+      <c r="AT7" s="42"/>
+      <c r="AU7" s="42"/>
+      <c r="AV7" s="42"/>
+      <c r="AW7" s="42"/>
+      <c r="AX7" s="42"/>
+      <c r="AY7" s="42"/>
+      <c r="AZ7" s="42"/>
+      <c r="BA7" s="42"/>
+      <c r="BB7" s="42"/>
+      <c r="BC7" s="42"/>
+      <c r="BD7" s="42"/>
+      <c r="BE7" s="42"/>
+      <c r="BF7" s="42"/>
+      <c r="BG7" s="42"/>
+      <c r="BH7" s="42"/>
+      <c r="BI7" s="42"/>
+      <c r="BJ7" s="42"/>
+      <c r="BK7" s="42"/>
+      <c r="BL7" s="42"/>
+      <c r="BM7" s="42"/>
+      <c r="BN7" s="42"/>
+      <c r="BO7" s="42"/>
+      <c r="BP7" s="42"/>
+      <c r="BQ7" s="42"/>
+      <c r="BR7" s="42"/>
+      <c r="BS7" s="42"/>
+      <c r="BT7" s="42"/>
+      <c r="BU7" s="42"/>
+      <c r="BV7" s="42"/>
+      <c r="BW7" s="42"/>
+      <c r="BX7" s="42"/>
+      <c r="BY7" s="42"/>
+      <c r="BZ7" s="42"/>
+      <c r="CA7" s="42"/>
+      <c r="CB7" s="42"/>
+      <c r="CC7" s="42"/>
+      <c r="CD7" s="42"/>
+      <c r="CE7" s="42"/>
+      <c r="CF7" s="42"/>
+      <c r="CG7" s="42"/>
+      <c r="CH7" s="42"/>
+      <c r="CI7" s="42"/>
     </row>
     <row r="8" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="36">
+      <c r="B8" s="31">
         <v>1</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="37" t="s">
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="38"/>
-      <c r="W8" s="38"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="37" t="s">
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="Z8" s="38"/>
-      <c r="AA8" s="38"/>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="38"/>
-      <c r="AD8" s="38"/>
-      <c r="AE8" s="38"/>
-      <c r="AF8" s="38"/>
-      <c r="AG8" s="38"/>
-      <c r="AH8" s="39"/>
-      <c r="AI8" s="37" t="s">
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="33"/>
+      <c r="AG8" s="33"/>
+      <c r="AH8" s="34"/>
+      <c r="AI8" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="AJ8" s="38"/>
-      <c r="AK8" s="38"/>
-      <c r="AL8" s="38"/>
-      <c r="AM8" s="38"/>
-      <c r="AN8" s="38"/>
-      <c r="AO8" s="38"/>
-      <c r="AP8" s="38"/>
-      <c r="AQ8" s="38"/>
-      <c r="AR8" s="39"/>
-      <c r="AS8" s="55" t="s">
+      <c r="AJ8" s="33"/>
+      <c r="AK8" s="33"/>
+      <c r="AL8" s="33"/>
+      <c r="AM8" s="33"/>
+      <c r="AN8" s="33"/>
+      <c r="AO8" s="33"/>
+      <c r="AP8" s="33"/>
+      <c r="AQ8" s="33"/>
+      <c r="AR8" s="34"/>
+      <c r="AS8" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="AT8" s="55"/>
-      <c r="AU8" s="55"/>
-      <c r="AV8" s="55"/>
-      <c r="AW8" s="55"/>
-      <c r="AX8" s="55"/>
-      <c r="AY8" s="55"/>
-      <c r="AZ8" s="55"/>
-      <c r="BA8" s="55"/>
-      <c r="BB8" s="55"/>
-      <c r="BC8" s="55"/>
-      <c r="BD8" s="55"/>
-      <c r="BE8" s="55"/>
-      <c r="BF8" s="55"/>
-      <c r="BG8" s="55"/>
-      <c r="BH8" s="55"/>
-      <c r="BI8" s="55"/>
-      <c r="BJ8" s="55"/>
-      <c r="BK8" s="55"/>
-      <c r="BL8" s="55"/>
-      <c r="BM8" s="55"/>
-      <c r="BN8" s="55"/>
-      <c r="BO8" s="55"/>
-      <c r="BP8" s="55"/>
-      <c r="BQ8" s="55"/>
-      <c r="BR8" s="55"/>
-      <c r="BS8" s="55"/>
-      <c r="BT8" s="55"/>
-      <c r="BU8" s="55"/>
-      <c r="BV8" s="55"/>
-      <c r="BW8" s="55"/>
-      <c r="BX8" s="55"/>
-      <c r="BY8" s="55"/>
-      <c r="BZ8" s="55"/>
-      <c r="CA8" s="55"/>
-      <c r="CB8" s="55"/>
-      <c r="CC8" s="55"/>
-      <c r="CD8" s="55"/>
-      <c r="CE8" s="55"/>
-      <c r="CF8" s="55"/>
-      <c r="CG8" s="55"/>
-      <c r="CH8" s="55"/>
-      <c r="CI8" s="55"/>
+      <c r="AT8" s="36"/>
+      <c r="AU8" s="36"/>
+      <c r="AV8" s="36"/>
+      <c r="AW8" s="36"/>
+      <c r="AX8" s="36"/>
+      <c r="AY8" s="36"/>
+      <c r="AZ8" s="36"/>
+      <c r="BA8" s="36"/>
+      <c r="BB8" s="36"/>
+      <c r="BC8" s="36"/>
+      <c r="BD8" s="36"/>
+      <c r="BE8" s="36"/>
+      <c r="BF8" s="36"/>
+      <c r="BG8" s="36"/>
+      <c r="BH8" s="36"/>
+      <c r="BI8" s="36"/>
+      <c r="BJ8" s="36"/>
+      <c r="BK8" s="36"/>
+      <c r="BL8" s="36"/>
+      <c r="BM8" s="36"/>
+      <c r="BN8" s="36"/>
+      <c r="BO8" s="36"/>
+      <c r="BP8" s="36"/>
+      <c r="BQ8" s="36"/>
+      <c r="BR8" s="36"/>
+      <c r="BS8" s="36"/>
+      <c r="BT8" s="36"/>
+      <c r="BU8" s="36"/>
+      <c r="BV8" s="36"/>
+      <c r="BW8" s="36"/>
+      <c r="BX8" s="36"/>
+      <c r="BY8" s="36"/>
+      <c r="BZ8" s="36"/>
+      <c r="CA8" s="36"/>
+      <c r="CB8" s="36"/>
+      <c r="CC8" s="36"/>
+      <c r="CD8" s="36"/>
+      <c r="CE8" s="36"/>
+      <c r="CF8" s="36"/>
+      <c r="CG8" s="36"/>
+      <c r="CH8" s="36"/>
+      <c r="CI8" s="36"/>
       <c r="CJ8" s="1"/>
       <c r="CK8" s="1"/>
       <c r="CL8" s="1"/>
@@ -7287,7 +7301,7 @@
       <c r="CF9" s="13"/>
       <c r="CG9" s="13"/>
       <c r="CH9" s="13"/>
-      <c r="CI9" s="89"/>
+      <c r="CI9" s="30"/>
       <c r="CJ9" s="1"/>
       <c r="CK9" s="1"/>
       <c r="CL9" s="1"/>
@@ -15417,201 +15431,201 @@
       <c r="AMJ16" s="1"/>
     </row>
     <row r="17" spans="1:1024" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31" t="s">
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="32" t="s">
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="33"/>
-      <c r="AB17" s="33"/>
-      <c r="AC17" s="33"/>
-      <c r="AD17" s="33"/>
-      <c r="AE17" s="33"/>
-      <c r="AF17" s="33"/>
-      <c r="AG17" s="33"/>
-      <c r="AH17" s="34"/>
-      <c r="AI17" s="32" t="s">
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="40"/>
+      <c r="AB17" s="40"/>
+      <c r="AC17" s="40"/>
+      <c r="AD17" s="40"/>
+      <c r="AE17" s="40"/>
+      <c r="AF17" s="40"/>
+      <c r="AG17" s="40"/>
+      <c r="AH17" s="41"/>
+      <c r="AI17" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="AJ17" s="33"/>
-      <c r="AK17" s="33"/>
-      <c r="AL17" s="33"/>
-      <c r="AM17" s="33"/>
-      <c r="AN17" s="33"/>
-      <c r="AO17" s="33"/>
-      <c r="AP17" s="33"/>
-      <c r="AQ17" s="33"/>
-      <c r="AR17" s="34"/>
-      <c r="AS17" s="35" t="s">
+      <c r="AJ17" s="40"/>
+      <c r="AK17" s="40"/>
+      <c r="AL17" s="40"/>
+      <c r="AM17" s="40"/>
+      <c r="AN17" s="40"/>
+      <c r="AO17" s="40"/>
+      <c r="AP17" s="40"/>
+      <c r="AQ17" s="40"/>
+      <c r="AR17" s="41"/>
+      <c r="AS17" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="AT17" s="35"/>
-      <c r="AU17" s="35"/>
-      <c r="AV17" s="35"/>
-      <c r="AW17" s="35"/>
-      <c r="AX17" s="35"/>
-      <c r="AY17" s="35"/>
-      <c r="AZ17" s="35"/>
-      <c r="BA17" s="35"/>
-      <c r="BB17" s="35"/>
-      <c r="BC17" s="35"/>
-      <c r="BD17" s="35"/>
-      <c r="BE17" s="35"/>
-      <c r="BF17" s="35"/>
-      <c r="BG17" s="35"/>
-      <c r="BH17" s="35"/>
-      <c r="BI17" s="35"/>
-      <c r="BJ17" s="35"/>
-      <c r="BK17" s="35"/>
-      <c r="BL17" s="35"/>
-      <c r="BM17" s="35"/>
-      <c r="BN17" s="35"/>
-      <c r="BO17" s="35"/>
-      <c r="BP17" s="35"/>
-      <c r="BQ17" s="35"/>
-      <c r="BR17" s="35"/>
-      <c r="BS17" s="35"/>
-      <c r="BT17" s="35"/>
-      <c r="BU17" s="35"/>
-      <c r="BV17" s="35"/>
-      <c r="BW17" s="35"/>
-      <c r="BX17" s="35"/>
-      <c r="BY17" s="35"/>
-      <c r="BZ17" s="35"/>
-      <c r="CA17" s="35"/>
-      <c r="CB17" s="35"/>
-      <c r="CC17" s="35"/>
-      <c r="CD17" s="35"/>
-      <c r="CE17" s="35"/>
-      <c r="CF17" s="35"/>
-      <c r="CG17" s="35"/>
-      <c r="CH17" s="35"/>
-      <c r="CI17" s="35"/>
+      <c r="AT17" s="42"/>
+      <c r="AU17" s="42"/>
+      <c r="AV17" s="42"/>
+      <c r="AW17" s="42"/>
+      <c r="AX17" s="42"/>
+      <c r="AY17" s="42"/>
+      <c r="AZ17" s="42"/>
+      <c r="BA17" s="42"/>
+      <c r="BB17" s="42"/>
+      <c r="BC17" s="42"/>
+      <c r="BD17" s="42"/>
+      <c r="BE17" s="42"/>
+      <c r="BF17" s="42"/>
+      <c r="BG17" s="42"/>
+      <c r="BH17" s="42"/>
+      <c r="BI17" s="42"/>
+      <c r="BJ17" s="42"/>
+      <c r="BK17" s="42"/>
+      <c r="BL17" s="42"/>
+      <c r="BM17" s="42"/>
+      <c r="BN17" s="42"/>
+      <c r="BO17" s="42"/>
+      <c r="BP17" s="42"/>
+      <c r="BQ17" s="42"/>
+      <c r="BR17" s="42"/>
+      <c r="BS17" s="42"/>
+      <c r="BT17" s="42"/>
+      <c r="BU17" s="42"/>
+      <c r="BV17" s="42"/>
+      <c r="BW17" s="42"/>
+      <c r="BX17" s="42"/>
+      <c r="BY17" s="42"/>
+      <c r="BZ17" s="42"/>
+      <c r="CA17" s="42"/>
+      <c r="CB17" s="42"/>
+      <c r="CC17" s="42"/>
+      <c r="CD17" s="42"/>
+      <c r="CE17" s="42"/>
+      <c r="CF17" s="42"/>
+      <c r="CG17" s="42"/>
+      <c r="CH17" s="42"/>
+      <c r="CI17" s="42"/>
     </row>
     <row r="18" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A18" s="2"/>
-      <c r="B18" s="36">
+      <c r="B18" s="31">
         <v>2</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="54" t="s">
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="54"/>
-      <c r="W18" s="54"/>
-      <c r="X18" s="54"/>
-      <c r="Y18" s="40" t="s">
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="60"/>
+      <c r="S18" s="60"/>
+      <c r="T18" s="60"/>
+      <c r="U18" s="60"/>
+      <c r="V18" s="60"/>
+      <c r="W18" s="60"/>
+      <c r="X18" s="60"/>
+      <c r="Y18" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="41"/>
-      <c r="AB18" s="41"/>
-      <c r="AC18" s="41"/>
-      <c r="AD18" s="41"/>
-      <c r="AE18" s="41"/>
-      <c r="AF18" s="41"/>
-      <c r="AG18" s="41"/>
-      <c r="AH18" s="42"/>
-      <c r="AI18" s="40" t="s">
+      <c r="Z18" s="82"/>
+      <c r="AA18" s="82"/>
+      <c r="AB18" s="82"/>
+      <c r="AC18" s="82"/>
+      <c r="AD18" s="82"/>
+      <c r="AE18" s="82"/>
+      <c r="AF18" s="82"/>
+      <c r="AG18" s="82"/>
+      <c r="AH18" s="83"/>
+      <c r="AI18" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="AJ18" s="41"/>
-      <c r="AK18" s="41"/>
-      <c r="AL18" s="41"/>
-      <c r="AM18" s="41"/>
-      <c r="AN18" s="41"/>
-      <c r="AO18" s="41"/>
-      <c r="AP18" s="41"/>
-      <c r="AQ18" s="41"/>
-      <c r="AR18" s="42"/>
-      <c r="AS18" s="55" t="s">
+      <c r="AJ18" s="82"/>
+      <c r="AK18" s="82"/>
+      <c r="AL18" s="82"/>
+      <c r="AM18" s="82"/>
+      <c r="AN18" s="82"/>
+      <c r="AO18" s="82"/>
+      <c r="AP18" s="82"/>
+      <c r="AQ18" s="82"/>
+      <c r="AR18" s="83"/>
+      <c r="AS18" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="AT18" s="55"/>
-      <c r="AU18" s="55"/>
-      <c r="AV18" s="55"/>
-      <c r="AW18" s="55"/>
-      <c r="AX18" s="55"/>
-      <c r="AY18" s="55"/>
-      <c r="AZ18" s="55"/>
-      <c r="BA18" s="55"/>
-      <c r="BB18" s="55"/>
-      <c r="BC18" s="55"/>
-      <c r="BD18" s="55"/>
-      <c r="BE18" s="55"/>
-      <c r="BF18" s="55"/>
-      <c r="BG18" s="55"/>
-      <c r="BH18" s="55"/>
-      <c r="BI18" s="55"/>
-      <c r="BJ18" s="55"/>
-      <c r="BK18" s="55"/>
-      <c r="BL18" s="55"/>
-      <c r="BM18" s="55"/>
-      <c r="BN18" s="55"/>
-      <c r="BO18" s="55"/>
-      <c r="BP18" s="55"/>
-      <c r="BQ18" s="55"/>
-      <c r="BR18" s="55"/>
-      <c r="BS18" s="55"/>
-      <c r="BT18" s="55"/>
-      <c r="BU18" s="55"/>
-      <c r="BV18" s="55"/>
-      <c r="BW18" s="55"/>
-      <c r="BX18" s="55"/>
-      <c r="BY18" s="55"/>
-      <c r="BZ18" s="55"/>
-      <c r="CA18" s="55"/>
-      <c r="CB18" s="55"/>
-      <c r="CC18" s="55"/>
-      <c r="CD18" s="55"/>
-      <c r="CE18" s="55"/>
-      <c r="CF18" s="55"/>
-      <c r="CG18" s="55"/>
-      <c r="CH18" s="55"/>
-      <c r="CI18" s="55"/>
+      <c r="AT18" s="36"/>
+      <c r="AU18" s="36"/>
+      <c r="AV18" s="36"/>
+      <c r="AW18" s="36"/>
+      <c r="AX18" s="36"/>
+      <c r="AY18" s="36"/>
+      <c r="AZ18" s="36"/>
+      <c r="BA18" s="36"/>
+      <c r="BB18" s="36"/>
+      <c r="BC18" s="36"/>
+      <c r="BD18" s="36"/>
+      <c r="BE18" s="36"/>
+      <c r="BF18" s="36"/>
+      <c r="BG18" s="36"/>
+      <c r="BH18" s="36"/>
+      <c r="BI18" s="36"/>
+      <c r="BJ18" s="36"/>
+      <c r="BK18" s="36"/>
+      <c r="BL18" s="36"/>
+      <c r="BM18" s="36"/>
+      <c r="BN18" s="36"/>
+      <c r="BO18" s="36"/>
+      <c r="BP18" s="36"/>
+      <c r="BQ18" s="36"/>
+      <c r="BR18" s="36"/>
+      <c r="BS18" s="36"/>
+      <c r="BT18" s="36"/>
+      <c r="BU18" s="36"/>
+      <c r="BV18" s="36"/>
+      <c r="BW18" s="36"/>
+      <c r="BX18" s="36"/>
+      <c r="BY18" s="36"/>
+      <c r="BZ18" s="36"/>
+      <c r="CA18" s="36"/>
+      <c r="CB18" s="36"/>
+      <c r="CC18" s="36"/>
+      <c r="CD18" s="36"/>
+      <c r="CE18" s="36"/>
+      <c r="CF18" s="36"/>
+      <c r="CG18" s="36"/>
+      <c r="CH18" s="36"/>
+      <c r="CI18" s="36"/>
       <c r="CJ18" s="1"/>
       <c r="CK18" s="1"/>
       <c r="CL18" s="1"/>
@@ -19639,29 +19653,29 @@
       <c r="D22" s="24"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
-      <c r="G22" s="58" t="s">
+      <c r="G22" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="59"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="61" t="s">
+      <c r="H22" s="62"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="60"/>
-      <c r="Y22" s="58" t="s">
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="63"/>
+      <c r="Y22" s="43" t="s">
         <v>24</v>
       </c>
       <c r="Z22" s="44"/>
@@ -20671,12 +20685,12 @@
       <c r="D23" s="24"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
-      <c r="G23" s="40">
+      <c r="G23" s="55">
         <v>1</v>
       </c>
       <c r="H23" s="44"/>
       <c r="I23" s="45"/>
-      <c r="J23" s="40" t="s">
+      <c r="J23" s="55" t="s">
         <v>40</v>
       </c>
       <c r="K23" s="44"/>
@@ -20693,7 +20707,7 @@
       <c r="V23" s="44"/>
       <c r="W23" s="44"/>
       <c r="X23" s="45"/>
-      <c r="Y23" s="76" t="s">
+      <c r="Y23" s="56" t="s">
         <v>46</v>
       </c>
       <c r="Z23" s="44"/>
@@ -24785,29 +24799,29 @@
       <c r="D27" s="24"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
-      <c r="G27" s="58" t="s">
+      <c r="G27" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="59"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="61" t="s">
+      <c r="H27" s="62"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="62"/>
-      <c r="R27" s="62"/>
-      <c r="S27" s="62"/>
-      <c r="T27" s="59"/>
-      <c r="U27" s="59"/>
-      <c r="V27" s="59"/>
-      <c r="W27" s="59"/>
-      <c r="X27" s="60"/>
-      <c r="Y27" s="58" t="s">
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="65"/>
+      <c r="Q27" s="65"/>
+      <c r="R27" s="65"/>
+      <c r="S27" s="65"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="63"/>
+      <c r="Y27" s="43" t="s">
         <v>49</v>
       </c>
       <c r="Z27" s="44"/>
@@ -25817,12 +25831,12 @@
       <c r="D28" s="24"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="40">
+      <c r="G28" s="55">
         <v>1</v>
       </c>
       <c r="H28" s="44"/>
       <c r="I28" s="45"/>
-      <c r="J28" s="40" t="s">
+      <c r="J28" s="55" t="s">
         <v>48</v>
       </c>
       <c r="K28" s="44"/>
@@ -25839,7 +25853,7 @@
       <c r="V28" s="44"/>
       <c r="W28" s="44"/>
       <c r="X28" s="45"/>
-      <c r="Y28" s="76" t="s">
+      <c r="Y28" s="56" t="s">
         <v>50</v>
       </c>
       <c r="Z28" s="44"/>
@@ -26849,12 +26863,12 @@
       <c r="D29" s="24"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="40">
+      <c r="G29" s="55">
         <v>2</v>
       </c>
       <c r="H29" s="44"/>
       <c r="I29" s="45"/>
-      <c r="J29" s="40" t="s">
+      <c r="J29" s="55" t="s">
         <v>51</v>
       </c>
       <c r="K29" s="44"/>
@@ -26871,7 +26885,7 @@
       <c r="V29" s="44"/>
       <c r="W29" s="44"/>
       <c r="X29" s="45"/>
-      <c r="Y29" s="76" t="s">
+      <c r="Y29" s="56" t="s">
         <v>52</v>
       </c>
       <c r="Z29" s="44"/>
@@ -30953,201 +30967,201 @@
       <c r="AMJ32" s="1"/>
     </row>
     <row r="33" spans="1:1024" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="49"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="51" t="s">
+      <c r="C33" s="58"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
-      <c r="O33" s="52"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="52"/>
-      <c r="S33" s="52"/>
-      <c r="T33" s="52"/>
-      <c r="U33" s="52"/>
-      <c r="V33" s="52"/>
-      <c r="W33" s="52"/>
-      <c r="X33" s="53"/>
-      <c r="Y33" s="32" t="s">
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="87"/>
+      <c r="M33" s="87"/>
+      <c r="N33" s="87"/>
+      <c r="O33" s="87"/>
+      <c r="P33" s="87"/>
+      <c r="Q33" s="87"/>
+      <c r="R33" s="87"/>
+      <c r="S33" s="87"/>
+      <c r="T33" s="87"/>
+      <c r="U33" s="87"/>
+      <c r="V33" s="87"/>
+      <c r="W33" s="87"/>
+      <c r="X33" s="88"/>
+      <c r="Y33" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="Z33" s="33"/>
-      <c r="AA33" s="33"/>
-      <c r="AB33" s="33"/>
-      <c r="AC33" s="33"/>
-      <c r="AD33" s="33"/>
-      <c r="AE33" s="33"/>
-      <c r="AF33" s="33"/>
-      <c r="AG33" s="33"/>
-      <c r="AH33" s="34"/>
-      <c r="AI33" s="32" t="s">
+      <c r="Z33" s="40"/>
+      <c r="AA33" s="40"/>
+      <c r="AB33" s="40"/>
+      <c r="AC33" s="40"/>
+      <c r="AD33" s="40"/>
+      <c r="AE33" s="40"/>
+      <c r="AF33" s="40"/>
+      <c r="AG33" s="40"/>
+      <c r="AH33" s="41"/>
+      <c r="AI33" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="AJ33" s="33"/>
-      <c r="AK33" s="33"/>
-      <c r="AL33" s="33"/>
-      <c r="AM33" s="33"/>
-      <c r="AN33" s="33"/>
-      <c r="AO33" s="33"/>
-      <c r="AP33" s="33"/>
-      <c r="AQ33" s="33"/>
-      <c r="AR33" s="34"/>
-      <c r="AS33" s="86" t="s">
+      <c r="AJ33" s="40"/>
+      <c r="AK33" s="40"/>
+      <c r="AL33" s="40"/>
+      <c r="AM33" s="40"/>
+      <c r="AN33" s="40"/>
+      <c r="AO33" s="40"/>
+      <c r="AP33" s="40"/>
+      <c r="AQ33" s="40"/>
+      <c r="AR33" s="41"/>
+      <c r="AS33" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="AT33" s="49"/>
-      <c r="AU33" s="49"/>
-      <c r="AV33" s="49"/>
-      <c r="AW33" s="49"/>
-      <c r="AX33" s="49"/>
-      <c r="AY33" s="49"/>
-      <c r="AZ33" s="49"/>
-      <c r="BA33" s="49"/>
-      <c r="BB33" s="49"/>
-      <c r="BC33" s="49"/>
-      <c r="BD33" s="49"/>
-      <c r="BE33" s="49"/>
-      <c r="BF33" s="49"/>
-      <c r="BG33" s="49"/>
-      <c r="BH33" s="49"/>
-      <c r="BI33" s="49"/>
-      <c r="BJ33" s="49"/>
-      <c r="BK33" s="49"/>
-      <c r="BL33" s="49"/>
-      <c r="BM33" s="49"/>
-      <c r="BN33" s="49"/>
-      <c r="BO33" s="49"/>
-      <c r="BP33" s="49"/>
-      <c r="BQ33" s="49"/>
-      <c r="BR33" s="49"/>
-      <c r="BS33" s="49"/>
-      <c r="BT33" s="49"/>
-      <c r="BU33" s="49"/>
-      <c r="BV33" s="49"/>
-      <c r="BW33" s="49"/>
-      <c r="BX33" s="49"/>
-      <c r="BY33" s="49"/>
-      <c r="BZ33" s="49"/>
-      <c r="CA33" s="49"/>
-      <c r="CB33" s="49"/>
-      <c r="CC33" s="49"/>
-      <c r="CD33" s="49"/>
-      <c r="CE33" s="49"/>
-      <c r="CF33" s="49"/>
-      <c r="CG33" s="49"/>
-      <c r="CH33" s="49"/>
-      <c r="CI33" s="87"/>
+      <c r="AT33" s="58"/>
+      <c r="AU33" s="58"/>
+      <c r="AV33" s="58"/>
+      <c r="AW33" s="58"/>
+      <c r="AX33" s="58"/>
+      <c r="AY33" s="58"/>
+      <c r="AZ33" s="58"/>
+      <c r="BA33" s="58"/>
+      <c r="BB33" s="58"/>
+      <c r="BC33" s="58"/>
+      <c r="BD33" s="58"/>
+      <c r="BE33" s="58"/>
+      <c r="BF33" s="58"/>
+      <c r="BG33" s="58"/>
+      <c r="BH33" s="58"/>
+      <c r="BI33" s="58"/>
+      <c r="BJ33" s="58"/>
+      <c r="BK33" s="58"/>
+      <c r="BL33" s="58"/>
+      <c r="BM33" s="58"/>
+      <c r="BN33" s="58"/>
+      <c r="BO33" s="58"/>
+      <c r="BP33" s="58"/>
+      <c r="BQ33" s="58"/>
+      <c r="BR33" s="58"/>
+      <c r="BS33" s="58"/>
+      <c r="BT33" s="58"/>
+      <c r="BU33" s="58"/>
+      <c r="BV33" s="58"/>
+      <c r="BW33" s="58"/>
+      <c r="BX33" s="58"/>
+      <c r="BY33" s="58"/>
+      <c r="BZ33" s="58"/>
+      <c r="CA33" s="58"/>
+      <c r="CB33" s="58"/>
+      <c r="CC33" s="58"/>
+      <c r="CD33" s="58"/>
+      <c r="CE33" s="58"/>
+      <c r="CF33" s="58"/>
+      <c r="CG33" s="58"/>
+      <c r="CH33" s="58"/>
+      <c r="CI33" s="59"/>
     </row>
     <row r="34" spans="1:1024" ht="18" customHeight="1">
       <c r="A34" s="2"/>
-      <c r="B34" s="36">
+      <c r="B34" s="31">
         <v>3</v>
       </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="54" t="s">
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="54"/>
-      <c r="N34" s="54"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="54"/>
-      <c r="R34" s="54"/>
-      <c r="S34" s="54"/>
-      <c r="T34" s="54"/>
-      <c r="U34" s="54"/>
-      <c r="V34" s="54"/>
-      <c r="W34" s="54"/>
-      <c r="X34" s="54"/>
-      <c r="Y34" s="40" t="s">
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="60"/>
+      <c r="Q34" s="60"/>
+      <c r="R34" s="60"/>
+      <c r="S34" s="60"/>
+      <c r="T34" s="60"/>
+      <c r="U34" s="60"/>
+      <c r="V34" s="60"/>
+      <c r="W34" s="60"/>
+      <c r="X34" s="60"/>
+      <c r="Y34" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="Z34" s="41"/>
-      <c r="AA34" s="41"/>
-      <c r="AB34" s="41"/>
-      <c r="AC34" s="41"/>
-      <c r="AD34" s="41"/>
-      <c r="AE34" s="41"/>
-      <c r="AF34" s="41"/>
-      <c r="AG34" s="41"/>
-      <c r="AH34" s="42"/>
-      <c r="AI34" s="40" t="s">
+      <c r="Z34" s="82"/>
+      <c r="AA34" s="82"/>
+      <c r="AB34" s="82"/>
+      <c r="AC34" s="82"/>
+      <c r="AD34" s="82"/>
+      <c r="AE34" s="82"/>
+      <c r="AF34" s="82"/>
+      <c r="AG34" s="82"/>
+      <c r="AH34" s="83"/>
+      <c r="AI34" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="AJ34" s="41"/>
-      <c r="AK34" s="41"/>
-      <c r="AL34" s="41"/>
-      <c r="AM34" s="41"/>
-      <c r="AN34" s="41"/>
-      <c r="AO34" s="41"/>
-      <c r="AP34" s="41"/>
-      <c r="AQ34" s="41"/>
-      <c r="AR34" s="42"/>
-      <c r="AS34" s="43" t="s">
+      <c r="AJ34" s="82"/>
+      <c r="AK34" s="82"/>
+      <c r="AL34" s="82"/>
+      <c r="AM34" s="82"/>
+      <c r="AN34" s="82"/>
+      <c r="AO34" s="82"/>
+      <c r="AP34" s="82"/>
+      <c r="AQ34" s="82"/>
+      <c r="AR34" s="83"/>
+      <c r="AS34" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="AT34" s="43"/>
-      <c r="AU34" s="43"/>
-      <c r="AV34" s="43"/>
-      <c r="AW34" s="43"/>
-      <c r="AX34" s="43"/>
-      <c r="AY34" s="43"/>
-      <c r="AZ34" s="43"/>
-      <c r="BA34" s="43"/>
-      <c r="BB34" s="43"/>
-      <c r="BC34" s="43"/>
-      <c r="BD34" s="43"/>
-      <c r="BE34" s="43"/>
-      <c r="BF34" s="43"/>
-      <c r="BG34" s="43"/>
-      <c r="BH34" s="43"/>
-      <c r="BI34" s="43"/>
-      <c r="BJ34" s="43"/>
-      <c r="BK34" s="43"/>
-      <c r="BL34" s="43"/>
-      <c r="BM34" s="43"/>
-      <c r="BN34" s="43"/>
-      <c r="BO34" s="43"/>
-      <c r="BP34" s="43"/>
-      <c r="BQ34" s="43"/>
-      <c r="BR34" s="43"/>
-      <c r="BS34" s="43"/>
-      <c r="BT34" s="43"/>
-      <c r="BU34" s="43"/>
-      <c r="BV34" s="43"/>
-      <c r="BW34" s="43"/>
-      <c r="BX34" s="43"/>
-      <c r="BY34" s="43"/>
-      <c r="BZ34" s="43"/>
-      <c r="CA34" s="43"/>
-      <c r="CB34" s="43"/>
-      <c r="CC34" s="43"/>
-      <c r="CD34" s="43"/>
-      <c r="CE34" s="43"/>
-      <c r="CF34" s="43"/>
-      <c r="CG34" s="43"/>
-      <c r="CH34" s="43"/>
-      <c r="CI34" s="43"/>
+      <c r="AT34" s="61"/>
+      <c r="AU34" s="61"/>
+      <c r="AV34" s="61"/>
+      <c r="AW34" s="61"/>
+      <c r="AX34" s="61"/>
+      <c r="AY34" s="61"/>
+      <c r="AZ34" s="61"/>
+      <c r="BA34" s="61"/>
+      <c r="BB34" s="61"/>
+      <c r="BC34" s="61"/>
+      <c r="BD34" s="61"/>
+      <c r="BE34" s="61"/>
+      <c r="BF34" s="61"/>
+      <c r="BG34" s="61"/>
+      <c r="BH34" s="61"/>
+      <c r="BI34" s="61"/>
+      <c r="BJ34" s="61"/>
+      <c r="BK34" s="61"/>
+      <c r="BL34" s="61"/>
+      <c r="BM34" s="61"/>
+      <c r="BN34" s="61"/>
+      <c r="BO34" s="61"/>
+      <c r="BP34" s="61"/>
+      <c r="BQ34" s="61"/>
+      <c r="BR34" s="61"/>
+      <c r="BS34" s="61"/>
+      <c r="BT34" s="61"/>
+      <c r="BU34" s="61"/>
+      <c r="BV34" s="61"/>
+      <c r="BW34" s="61"/>
+      <c r="BX34" s="61"/>
+      <c r="BY34" s="61"/>
+      <c r="BZ34" s="61"/>
+      <c r="CA34" s="61"/>
+      <c r="CB34" s="61"/>
+      <c r="CC34" s="61"/>
+      <c r="CD34" s="61"/>
+      <c r="CE34" s="61"/>
+      <c r="CF34" s="61"/>
+      <c r="CG34" s="61"/>
+      <c r="CH34" s="61"/>
+      <c r="CI34" s="61"/>
       <c r="CJ34" s="1"/>
       <c r="CK34" s="1"/>
       <c r="CL34" s="1"/>
@@ -36203,29 +36217,29 @@
       <c r="D39" s="24"/>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="58" t="s">
+      <c r="G39" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="H39" s="59"/>
-      <c r="I39" s="60"/>
-      <c r="J39" s="61" t="s">
+      <c r="H39" s="62"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="K39" s="62"/>
-      <c r="L39" s="62"/>
-      <c r="M39" s="62"/>
-      <c r="N39" s="62"/>
-      <c r="O39" s="62"/>
-      <c r="P39" s="62"/>
-      <c r="Q39" s="62"/>
-      <c r="R39" s="62"/>
-      <c r="S39" s="62"/>
-      <c r="T39" s="59"/>
-      <c r="U39" s="59"/>
-      <c r="V39" s="59"/>
-      <c r="W39" s="59"/>
-      <c r="X39" s="60"/>
-      <c r="Y39" s="58" t="s">
+      <c r="K39" s="65"/>
+      <c r="L39" s="65"/>
+      <c r="M39" s="65"/>
+      <c r="N39" s="65"/>
+      <c r="O39" s="65"/>
+      <c r="P39" s="65"/>
+      <c r="Q39" s="65"/>
+      <c r="R39" s="65"/>
+      <c r="S39" s="65"/>
+      <c r="T39" s="62"/>
+      <c r="U39" s="62"/>
+      <c r="V39" s="62"/>
+      <c r="W39" s="62"/>
+      <c r="X39" s="63"/>
+      <c r="Y39" s="43" t="s">
         <v>24</v>
       </c>
       <c r="Z39" s="44"/>
@@ -37235,12 +37249,12 @@
       <c r="D40" s="24"/>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
-      <c r="G40" s="40">
+      <c r="G40" s="55">
         <v>1</v>
       </c>
       <c r="H40" s="44"/>
       <c r="I40" s="45"/>
-      <c r="J40" s="40" t="s">
+      <c r="J40" s="55" t="s">
         <v>40</v>
       </c>
       <c r="K40" s="44"/>
@@ -37257,7 +37271,7 @@
       <c r="V40" s="44"/>
       <c r="W40" s="44"/>
       <c r="X40" s="45"/>
-      <c r="Y40" s="76" t="s">
+      <c r="Y40" s="56" t="s">
         <v>46</v>
       </c>
       <c r="Z40" s="44"/>
@@ -45463,7 +45477,7 @@
       <c r="D48" s="24"/>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
-      <c r="G48" s="58" t="s">
+      <c r="G48" s="43" t="s">
         <v>27</v>
       </c>
       <c r="H48" s="44"/>
@@ -46490,65 +46504,65 @@
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
-      <c r="G49" s="77" t="s">
+      <c r="G49" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="H49" s="78"/>
-      <c r="I49" s="78"/>
-      <c r="J49" s="78"/>
-      <c r="K49" s="78"/>
-      <c r="L49" s="78"/>
-      <c r="M49" s="78"/>
-      <c r="N49" s="78"/>
-      <c r="O49" s="78"/>
-      <c r="P49" s="78"/>
-      <c r="Q49" s="78"/>
-      <c r="R49" s="78"/>
-      <c r="S49" s="78"/>
-      <c r="T49" s="78"/>
-      <c r="U49" s="78"/>
-      <c r="V49" s="78"/>
-      <c r="W49" s="78"/>
-      <c r="X49" s="78"/>
-      <c r="Y49" s="78"/>
-      <c r="Z49" s="78"/>
-      <c r="AA49" s="78"/>
-      <c r="AB49" s="78"/>
-      <c r="AC49" s="78"/>
-      <c r="AD49" s="78"/>
-      <c r="AE49" s="78"/>
-      <c r="AF49" s="78"/>
-      <c r="AG49" s="78"/>
-      <c r="AH49" s="78"/>
-      <c r="AI49" s="78"/>
-      <c r="AJ49" s="78"/>
-      <c r="AK49" s="78"/>
-      <c r="AL49" s="78"/>
-      <c r="AM49" s="78"/>
-      <c r="AN49" s="78"/>
-      <c r="AO49" s="78"/>
-      <c r="AP49" s="78"/>
-      <c r="AQ49" s="78"/>
-      <c r="AR49" s="78"/>
-      <c r="AS49" s="78"/>
-      <c r="AT49" s="78"/>
-      <c r="AU49" s="78"/>
-      <c r="AV49" s="78"/>
-      <c r="AW49" s="78"/>
-      <c r="AX49" s="78"/>
-      <c r="AY49" s="78"/>
-      <c r="AZ49" s="78"/>
-      <c r="BA49" s="78"/>
-      <c r="BB49" s="78"/>
-      <c r="BC49" s="78"/>
-      <c r="BD49" s="78"/>
-      <c r="BE49" s="78"/>
-      <c r="BF49" s="78"/>
-      <c r="BG49" s="78"/>
-      <c r="BH49" s="78"/>
-      <c r="BI49" s="78"/>
-      <c r="BJ49" s="78"/>
-      <c r="BK49" s="79"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="47"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="47"/>
+      <c r="N49" s="47"/>
+      <c r="O49" s="47"/>
+      <c r="P49" s="47"/>
+      <c r="Q49" s="47"/>
+      <c r="R49" s="47"/>
+      <c r="S49" s="47"/>
+      <c r="T49" s="47"/>
+      <c r="U49" s="47"/>
+      <c r="V49" s="47"/>
+      <c r="W49" s="47"/>
+      <c r="X49" s="47"/>
+      <c r="Y49" s="47"/>
+      <c r="Z49" s="47"/>
+      <c r="AA49" s="47"/>
+      <c r="AB49" s="47"/>
+      <c r="AC49" s="47"/>
+      <c r="AD49" s="47"/>
+      <c r="AE49" s="47"/>
+      <c r="AF49" s="47"/>
+      <c r="AG49" s="47"/>
+      <c r="AH49" s="47"/>
+      <c r="AI49" s="47"/>
+      <c r="AJ49" s="47"/>
+      <c r="AK49" s="47"/>
+      <c r="AL49" s="47"/>
+      <c r="AM49" s="47"/>
+      <c r="AN49" s="47"/>
+      <c r="AO49" s="47"/>
+      <c r="AP49" s="47"/>
+      <c r="AQ49" s="47"/>
+      <c r="AR49" s="47"/>
+      <c r="AS49" s="47"/>
+      <c r="AT49" s="47"/>
+      <c r="AU49" s="47"/>
+      <c r="AV49" s="47"/>
+      <c r="AW49" s="47"/>
+      <c r="AX49" s="47"/>
+      <c r="AY49" s="47"/>
+      <c r="AZ49" s="47"/>
+      <c r="BA49" s="47"/>
+      <c r="BB49" s="47"/>
+      <c r="BC49" s="47"/>
+      <c r="BD49" s="47"/>
+      <c r="BE49" s="47"/>
+      <c r="BF49" s="47"/>
+      <c r="BG49" s="47"/>
+      <c r="BH49" s="47"/>
+      <c r="BI49" s="47"/>
+      <c r="BJ49" s="47"/>
+      <c r="BK49" s="48"/>
       <c r="BL49" s="24"/>
       <c r="BM49" s="24"/>
       <c r="BN49" s="24"/>
@@ -46581,63 +46595,63 @@
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
-      <c r="G50" s="80"/>
-      <c r="H50" s="81"/>
-      <c r="I50" s="81"/>
-      <c r="J50" s="81"/>
-      <c r="K50" s="81"/>
-      <c r="L50" s="81"/>
-      <c r="M50" s="81"/>
-      <c r="N50" s="81"/>
-      <c r="O50" s="81"/>
-      <c r="P50" s="81"/>
-      <c r="Q50" s="81"/>
-      <c r="R50" s="81"/>
-      <c r="S50" s="81"/>
-      <c r="T50" s="81"/>
-      <c r="U50" s="81"/>
-      <c r="V50" s="81"/>
-      <c r="W50" s="81"/>
-      <c r="X50" s="81"/>
-      <c r="Y50" s="81"/>
-      <c r="Z50" s="81"/>
-      <c r="AA50" s="81"/>
-      <c r="AB50" s="81"/>
-      <c r="AC50" s="81"/>
-      <c r="AD50" s="81"/>
-      <c r="AE50" s="81"/>
-      <c r="AF50" s="81"/>
-      <c r="AG50" s="81"/>
-      <c r="AH50" s="81"/>
-      <c r="AI50" s="81"/>
-      <c r="AJ50" s="81"/>
-      <c r="AK50" s="81"/>
-      <c r="AL50" s="81"/>
-      <c r="AM50" s="81"/>
-      <c r="AN50" s="81"/>
-      <c r="AO50" s="81"/>
-      <c r="AP50" s="81"/>
-      <c r="AQ50" s="81"/>
-      <c r="AR50" s="81"/>
-      <c r="AS50" s="81"/>
-      <c r="AT50" s="81"/>
-      <c r="AU50" s="81"/>
-      <c r="AV50" s="81"/>
-      <c r="AW50" s="81"/>
-      <c r="AX50" s="81"/>
-      <c r="AY50" s="81"/>
-      <c r="AZ50" s="81"/>
-      <c r="BA50" s="81"/>
-      <c r="BB50" s="81"/>
-      <c r="BC50" s="81"/>
-      <c r="BD50" s="81"/>
-      <c r="BE50" s="81"/>
-      <c r="BF50" s="81"/>
-      <c r="BG50" s="81"/>
-      <c r="BH50" s="81"/>
-      <c r="BI50" s="81"/>
-      <c r="BJ50" s="81"/>
-      <c r="BK50" s="82"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="50"/>
+      <c r="K50" s="50"/>
+      <c r="L50" s="50"/>
+      <c r="M50" s="50"/>
+      <c r="N50" s="50"/>
+      <c r="O50" s="50"/>
+      <c r="P50" s="50"/>
+      <c r="Q50" s="50"/>
+      <c r="R50" s="50"/>
+      <c r="S50" s="50"/>
+      <c r="T50" s="50"/>
+      <c r="U50" s="50"/>
+      <c r="V50" s="50"/>
+      <c r="W50" s="50"/>
+      <c r="X50" s="50"/>
+      <c r="Y50" s="50"/>
+      <c r="Z50" s="50"/>
+      <c r="AA50" s="50"/>
+      <c r="AB50" s="50"/>
+      <c r="AC50" s="50"/>
+      <c r="AD50" s="50"/>
+      <c r="AE50" s="50"/>
+      <c r="AF50" s="50"/>
+      <c r="AG50" s="50"/>
+      <c r="AH50" s="50"/>
+      <c r="AI50" s="50"/>
+      <c r="AJ50" s="50"/>
+      <c r="AK50" s="50"/>
+      <c r="AL50" s="50"/>
+      <c r="AM50" s="50"/>
+      <c r="AN50" s="50"/>
+      <c r="AO50" s="50"/>
+      <c r="AP50" s="50"/>
+      <c r="AQ50" s="50"/>
+      <c r="AR50" s="50"/>
+      <c r="AS50" s="50"/>
+      <c r="AT50" s="50"/>
+      <c r="AU50" s="50"/>
+      <c r="AV50" s="50"/>
+      <c r="AW50" s="50"/>
+      <c r="AX50" s="50"/>
+      <c r="AY50" s="50"/>
+      <c r="AZ50" s="50"/>
+      <c r="BA50" s="50"/>
+      <c r="BB50" s="50"/>
+      <c r="BC50" s="50"/>
+      <c r="BD50" s="50"/>
+      <c r="BE50" s="50"/>
+      <c r="BF50" s="50"/>
+      <c r="BG50" s="50"/>
+      <c r="BH50" s="50"/>
+      <c r="BI50" s="50"/>
+      <c r="BJ50" s="50"/>
+      <c r="BK50" s="51"/>
       <c r="BL50" s="24"/>
       <c r="BM50" s="24"/>
       <c r="BN50" s="24"/>
@@ -46670,63 +46684,63 @@
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
-      <c r="G51" s="83"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="84"/>
-      <c r="J51" s="84"/>
-      <c r="K51" s="84"/>
-      <c r="L51" s="84"/>
-      <c r="M51" s="84"/>
-      <c r="N51" s="84"/>
-      <c r="O51" s="84"/>
-      <c r="P51" s="84"/>
-      <c r="Q51" s="84"/>
-      <c r="R51" s="84"/>
-      <c r="S51" s="84"/>
-      <c r="T51" s="84"/>
-      <c r="U51" s="84"/>
-      <c r="V51" s="84"/>
-      <c r="W51" s="84"/>
-      <c r="X51" s="84"/>
-      <c r="Y51" s="84"/>
-      <c r="Z51" s="84"/>
-      <c r="AA51" s="84"/>
-      <c r="AB51" s="84"/>
-      <c r="AC51" s="84"/>
-      <c r="AD51" s="84"/>
-      <c r="AE51" s="84"/>
-      <c r="AF51" s="84"/>
-      <c r="AG51" s="84"/>
-      <c r="AH51" s="84"/>
-      <c r="AI51" s="84"/>
-      <c r="AJ51" s="84"/>
-      <c r="AK51" s="84"/>
-      <c r="AL51" s="84"/>
-      <c r="AM51" s="84"/>
-      <c r="AN51" s="84"/>
-      <c r="AO51" s="84"/>
-      <c r="AP51" s="84"/>
-      <c r="AQ51" s="84"/>
-      <c r="AR51" s="84"/>
-      <c r="AS51" s="84"/>
-      <c r="AT51" s="84"/>
-      <c r="AU51" s="84"/>
-      <c r="AV51" s="84"/>
-      <c r="AW51" s="84"/>
-      <c r="AX51" s="84"/>
-      <c r="AY51" s="84"/>
-      <c r="AZ51" s="84"/>
-      <c r="BA51" s="84"/>
-      <c r="BB51" s="84"/>
-      <c r="BC51" s="84"/>
-      <c r="BD51" s="84"/>
-      <c r="BE51" s="84"/>
-      <c r="BF51" s="84"/>
-      <c r="BG51" s="84"/>
-      <c r="BH51" s="84"/>
-      <c r="BI51" s="84"/>
-      <c r="BJ51" s="84"/>
-      <c r="BK51" s="85"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="53"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="53"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="53"/>
+      <c r="M51" s="53"/>
+      <c r="N51" s="53"/>
+      <c r="O51" s="53"/>
+      <c r="P51" s="53"/>
+      <c r="Q51" s="53"/>
+      <c r="R51" s="53"/>
+      <c r="S51" s="53"/>
+      <c r="T51" s="53"/>
+      <c r="U51" s="53"/>
+      <c r="V51" s="53"/>
+      <c r="W51" s="53"/>
+      <c r="X51" s="53"/>
+      <c r="Y51" s="53"/>
+      <c r="Z51" s="53"/>
+      <c r="AA51" s="53"/>
+      <c r="AB51" s="53"/>
+      <c r="AC51" s="53"/>
+      <c r="AD51" s="53"/>
+      <c r="AE51" s="53"/>
+      <c r="AF51" s="53"/>
+      <c r="AG51" s="53"/>
+      <c r="AH51" s="53"/>
+      <c r="AI51" s="53"/>
+      <c r="AJ51" s="53"/>
+      <c r="AK51" s="53"/>
+      <c r="AL51" s="53"/>
+      <c r="AM51" s="53"/>
+      <c r="AN51" s="53"/>
+      <c r="AO51" s="53"/>
+      <c r="AP51" s="53"/>
+      <c r="AQ51" s="53"/>
+      <c r="AR51" s="53"/>
+      <c r="AS51" s="53"/>
+      <c r="AT51" s="53"/>
+      <c r="AU51" s="53"/>
+      <c r="AV51" s="53"/>
+      <c r="AW51" s="53"/>
+      <c r="AX51" s="53"/>
+      <c r="AY51" s="53"/>
+      <c r="AZ51" s="53"/>
+      <c r="BA51" s="53"/>
+      <c r="BB51" s="53"/>
+      <c r="BC51" s="53"/>
+      <c r="BD51" s="53"/>
+      <c r="BE51" s="53"/>
+      <c r="BF51" s="53"/>
+      <c r="BG51" s="53"/>
+      <c r="BH51" s="53"/>
+      <c r="BI51" s="53"/>
+      <c r="BJ51" s="53"/>
+      <c r="BK51" s="54"/>
       <c r="BL51" s="24"/>
       <c r="BM51" s="24"/>
       <c r="BN51" s="24"/>
@@ -49833,200 +49847,200 @@
     </row>
     <row r="55" spans="1:1025" ht="18.600000000000001" thickBot="1"/>
     <row r="56" spans="1:1025">
-      <c r="B56" s="30" t="s">
+      <c r="B56" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="31" t="s">
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="31"/>
-      <c r="M56" s="31"/>
-      <c r="N56" s="31"/>
-      <c r="O56" s="31"/>
-      <c r="P56" s="31"/>
-      <c r="Q56" s="31"/>
-      <c r="R56" s="31"/>
-      <c r="S56" s="31"/>
-      <c r="T56" s="31"/>
-      <c r="U56" s="31"/>
-      <c r="V56" s="31"/>
-      <c r="W56" s="31"/>
-      <c r="X56" s="31"/>
-      <c r="Y56" s="32" t="s">
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="38"/>
+      <c r="P56" s="38"/>
+      <c r="Q56" s="38"/>
+      <c r="R56" s="38"/>
+      <c r="S56" s="38"/>
+      <c r="T56" s="38"/>
+      <c r="U56" s="38"/>
+      <c r="V56" s="38"/>
+      <c r="W56" s="38"/>
+      <c r="X56" s="38"/>
+      <c r="Y56" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="Z56" s="33"/>
-      <c r="AA56" s="33"/>
-      <c r="AB56" s="33"/>
-      <c r="AC56" s="33"/>
-      <c r="AD56" s="33"/>
-      <c r="AE56" s="33"/>
-      <c r="AF56" s="33"/>
-      <c r="AG56" s="33"/>
-      <c r="AH56" s="34"/>
-      <c r="AI56" s="32" t="s">
+      <c r="Z56" s="40"/>
+      <c r="AA56" s="40"/>
+      <c r="AB56" s="40"/>
+      <c r="AC56" s="40"/>
+      <c r="AD56" s="40"/>
+      <c r="AE56" s="40"/>
+      <c r="AF56" s="40"/>
+      <c r="AG56" s="40"/>
+      <c r="AH56" s="41"/>
+      <c r="AI56" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="AJ56" s="33"/>
-      <c r="AK56" s="33"/>
-      <c r="AL56" s="33"/>
-      <c r="AM56" s="33"/>
-      <c r="AN56" s="33"/>
-      <c r="AO56" s="33"/>
-      <c r="AP56" s="33"/>
-      <c r="AQ56" s="33"/>
-      <c r="AR56" s="34"/>
-      <c r="AS56" s="35" t="s">
+      <c r="AJ56" s="40"/>
+      <c r="AK56" s="40"/>
+      <c r="AL56" s="40"/>
+      <c r="AM56" s="40"/>
+      <c r="AN56" s="40"/>
+      <c r="AO56" s="40"/>
+      <c r="AP56" s="40"/>
+      <c r="AQ56" s="40"/>
+      <c r="AR56" s="41"/>
+      <c r="AS56" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="AT56" s="35"/>
-      <c r="AU56" s="35"/>
-      <c r="AV56" s="35"/>
-      <c r="AW56" s="35"/>
-      <c r="AX56" s="35"/>
-      <c r="AY56" s="35"/>
-      <c r="AZ56" s="35"/>
-      <c r="BA56" s="35"/>
-      <c r="BB56" s="35"/>
-      <c r="BC56" s="35"/>
-      <c r="BD56" s="35"/>
-      <c r="BE56" s="35"/>
-      <c r="BF56" s="35"/>
-      <c r="BG56" s="35"/>
-      <c r="BH56" s="35"/>
-      <c r="BI56" s="35"/>
-      <c r="BJ56" s="35"/>
-      <c r="BK56" s="35"/>
-      <c r="BL56" s="35"/>
-      <c r="BM56" s="35"/>
-      <c r="BN56" s="35"/>
-      <c r="BO56" s="35"/>
-      <c r="BP56" s="35"/>
-      <c r="BQ56" s="35"/>
-      <c r="BR56" s="35"/>
-      <c r="BS56" s="35"/>
-      <c r="BT56" s="35"/>
-      <c r="BU56" s="35"/>
-      <c r="BV56" s="35"/>
-      <c r="BW56" s="35"/>
-      <c r="BX56" s="35"/>
-      <c r="BY56" s="35"/>
-      <c r="BZ56" s="35"/>
-      <c r="CA56" s="35"/>
-      <c r="CB56" s="35"/>
-      <c r="CC56" s="35"/>
-      <c r="CD56" s="35"/>
-      <c r="CE56" s="35"/>
-      <c r="CF56" s="35"/>
-      <c r="CG56" s="35"/>
-      <c r="CH56" s="35"/>
-      <c r="CI56" s="35"/>
+      <c r="AT56" s="42"/>
+      <c r="AU56" s="42"/>
+      <c r="AV56" s="42"/>
+      <c r="AW56" s="42"/>
+      <c r="AX56" s="42"/>
+      <c r="AY56" s="42"/>
+      <c r="AZ56" s="42"/>
+      <c r="BA56" s="42"/>
+      <c r="BB56" s="42"/>
+      <c r="BC56" s="42"/>
+      <c r="BD56" s="42"/>
+      <c r="BE56" s="42"/>
+      <c r="BF56" s="42"/>
+      <c r="BG56" s="42"/>
+      <c r="BH56" s="42"/>
+      <c r="BI56" s="42"/>
+      <c r="BJ56" s="42"/>
+      <c r="BK56" s="42"/>
+      <c r="BL56" s="42"/>
+      <c r="BM56" s="42"/>
+      <c r="BN56" s="42"/>
+      <c r="BO56" s="42"/>
+      <c r="BP56" s="42"/>
+      <c r="BQ56" s="42"/>
+      <c r="BR56" s="42"/>
+      <c r="BS56" s="42"/>
+      <c r="BT56" s="42"/>
+      <c r="BU56" s="42"/>
+      <c r="BV56" s="42"/>
+      <c r="BW56" s="42"/>
+      <c r="BX56" s="42"/>
+      <c r="BY56" s="42"/>
+      <c r="BZ56" s="42"/>
+      <c r="CA56" s="42"/>
+      <c r="CB56" s="42"/>
+      <c r="CC56" s="42"/>
+      <c r="CD56" s="42"/>
+      <c r="CE56" s="42"/>
+      <c r="CF56" s="42"/>
+      <c r="CG56" s="42"/>
+      <c r="CH56" s="42"/>
+      <c r="CI56" s="42"/>
     </row>
     <row r="57" spans="1:1025" ht="18.600000000000001" thickBot="1">
-      <c r="B57" s="36">
+      <c r="B57" s="31">
         <v>4</v>
       </c>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="37" t="s">
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="38"/>
-      <c r="J57" s="38"/>
-      <c r="K57" s="38"/>
-      <c r="L57" s="38"/>
-      <c r="M57" s="38"/>
-      <c r="N57" s="38"/>
-      <c r="O57" s="38"/>
-      <c r="P57" s="38"/>
-      <c r="Q57" s="38"/>
-      <c r="R57" s="38"/>
-      <c r="S57" s="38"/>
-      <c r="T57" s="38"/>
-      <c r="U57" s="38"/>
-      <c r="V57" s="38"/>
-      <c r="W57" s="38"/>
-      <c r="X57" s="39"/>
-      <c r="Y57" s="37" t="s">
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="33"/>
+      <c r="N57" s="33"/>
+      <c r="O57" s="33"/>
+      <c r="P57" s="33"/>
+      <c r="Q57" s="33"/>
+      <c r="R57" s="33"/>
+      <c r="S57" s="33"/>
+      <c r="T57" s="33"/>
+      <c r="U57" s="33"/>
+      <c r="V57" s="33"/>
+      <c r="W57" s="33"/>
+      <c r="X57" s="34"/>
+      <c r="Y57" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="Z57" s="38"/>
-      <c r="AA57" s="38"/>
-      <c r="AB57" s="38"/>
-      <c r="AC57" s="38"/>
-      <c r="AD57" s="38"/>
-      <c r="AE57" s="38"/>
-      <c r="AF57" s="38"/>
-      <c r="AG57" s="38"/>
-      <c r="AH57" s="39"/>
-      <c r="AI57" s="37" t="s">
+      <c r="Z57" s="33"/>
+      <c r="AA57" s="33"/>
+      <c r="AB57" s="33"/>
+      <c r="AC57" s="33"/>
+      <c r="AD57" s="33"/>
+      <c r="AE57" s="33"/>
+      <c r="AF57" s="33"/>
+      <c r="AG57" s="33"/>
+      <c r="AH57" s="34"/>
+      <c r="AI57" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="AJ57" s="38"/>
-      <c r="AK57" s="38"/>
-      <c r="AL57" s="38"/>
-      <c r="AM57" s="38"/>
-      <c r="AN57" s="38"/>
-      <c r="AO57" s="38"/>
-      <c r="AP57" s="38"/>
-      <c r="AQ57" s="38"/>
-      <c r="AR57" s="39"/>
-      <c r="AS57" s="88" t="s">
+      <c r="AJ57" s="33"/>
+      <c r="AK57" s="33"/>
+      <c r="AL57" s="33"/>
+      <c r="AM57" s="33"/>
+      <c r="AN57" s="33"/>
+      <c r="AO57" s="33"/>
+      <c r="AP57" s="33"/>
+      <c r="AQ57" s="33"/>
+      <c r="AR57" s="34"/>
+      <c r="AS57" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="AT57" s="55"/>
-      <c r="AU57" s="55"/>
-      <c r="AV57" s="55"/>
-      <c r="AW57" s="55"/>
-      <c r="AX57" s="55"/>
-      <c r="AY57" s="55"/>
-      <c r="AZ57" s="55"/>
-      <c r="BA57" s="55"/>
-      <c r="BB57" s="55"/>
-      <c r="BC57" s="55"/>
-      <c r="BD57" s="55"/>
-      <c r="BE57" s="55"/>
-      <c r="BF57" s="55"/>
-      <c r="BG57" s="55"/>
-      <c r="BH57" s="55"/>
-      <c r="BI57" s="55"/>
-      <c r="BJ57" s="55"/>
-      <c r="BK57" s="55"/>
-      <c r="BL57" s="55"/>
-      <c r="BM57" s="55"/>
-      <c r="BN57" s="55"/>
-      <c r="BO57" s="55"/>
-      <c r="BP57" s="55"/>
-      <c r="BQ57" s="55"/>
-      <c r="BR57" s="55"/>
-      <c r="BS57" s="55"/>
-      <c r="BT57" s="55"/>
-      <c r="BU57" s="55"/>
-      <c r="BV57" s="55"/>
-      <c r="BW57" s="55"/>
-      <c r="BX57" s="55"/>
-      <c r="BY57" s="55"/>
-      <c r="BZ57" s="55"/>
-      <c r="CA57" s="55"/>
-      <c r="CB57" s="55"/>
-      <c r="CC57" s="55"/>
-      <c r="CD57" s="55"/>
-      <c r="CE57" s="55"/>
-      <c r="CF57" s="55"/>
-      <c r="CG57" s="55"/>
-      <c r="CH57" s="55"/>
-      <c r="CI57" s="55"/>
+      <c r="AT57" s="36"/>
+      <c r="AU57" s="36"/>
+      <c r="AV57" s="36"/>
+      <c r="AW57" s="36"/>
+      <c r="AX57" s="36"/>
+      <c r="AY57" s="36"/>
+      <c r="AZ57" s="36"/>
+      <c r="BA57" s="36"/>
+      <c r="BB57" s="36"/>
+      <c r="BC57" s="36"/>
+      <c r="BD57" s="36"/>
+      <c r="BE57" s="36"/>
+      <c r="BF57" s="36"/>
+      <c r="BG57" s="36"/>
+      <c r="BH57" s="36"/>
+      <c r="BI57" s="36"/>
+      <c r="BJ57" s="36"/>
+      <c r="BK57" s="36"/>
+      <c r="BL57" s="36"/>
+      <c r="BM57" s="36"/>
+      <c r="BN57" s="36"/>
+      <c r="BO57" s="36"/>
+      <c r="BP57" s="36"/>
+      <c r="BQ57" s="36"/>
+      <c r="BR57" s="36"/>
+      <c r="BS57" s="36"/>
+      <c r="BT57" s="36"/>
+      <c r="BU57" s="36"/>
+      <c r="BV57" s="36"/>
+      <c r="BW57" s="36"/>
+      <c r="BX57" s="36"/>
+      <c r="BY57" s="36"/>
+      <c r="BZ57" s="36"/>
+      <c r="CA57" s="36"/>
+      <c r="CB57" s="36"/>
+      <c r="CC57" s="36"/>
+      <c r="CD57" s="36"/>
+      <c r="CE57" s="36"/>
+      <c r="CF57" s="36"/>
+      <c r="CG57" s="36"/>
+      <c r="CH57" s="36"/>
+      <c r="CI57" s="36"/>
     </row>
     <row r="58" spans="1:1025">
       <c r="B58" s="9"/>
@@ -51685,49 +51699,32 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:X57"/>
-    <mergeCell ref="Y57:AH57"/>
-    <mergeCell ref="AI57:AR57"/>
-    <mergeCell ref="AS57:CI57"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E56:X56"/>
-    <mergeCell ref="Y56:AH56"/>
-    <mergeCell ref="AI56:AR56"/>
-    <mergeCell ref="AS56:CI56"/>
-    <mergeCell ref="G48:BK48"/>
-    <mergeCell ref="G49:BK51"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:X28"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:X40"/>
-    <mergeCell ref="Y40:BK40"/>
-    <mergeCell ref="AS33:CI33"/>
-    <mergeCell ref="E34:X34"/>
-    <mergeCell ref="AS34:CI34"/>
-    <mergeCell ref="Y33:AH33"/>
-    <mergeCell ref="AI33:AR33"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:X39"/>
-    <mergeCell ref="Y39:BK39"/>
-    <mergeCell ref="CB1:CI1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:V2"/>
-    <mergeCell ref="W2:BK2"/>
-    <mergeCell ref="BL2:BO2"/>
-    <mergeCell ref="BP2:BW2"/>
-    <mergeCell ref="BX2:CA2"/>
-    <mergeCell ref="CB2:CI2"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:V1"/>
-    <mergeCell ref="W1:BK1"/>
-    <mergeCell ref="BL1:BO1"/>
-    <mergeCell ref="BP1:BW1"/>
-    <mergeCell ref="Y4:AR4"/>
-    <mergeCell ref="AS4:CI4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="E7:X7"/>
+    <mergeCell ref="AS17:CI17"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:X29"/>
+    <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="AS5:CI5"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:X22"/>
+    <mergeCell ref="Y22:BK22"/>
+    <mergeCell ref="Y23:BK23"/>
+    <mergeCell ref="Y28:BK28"/>
+    <mergeCell ref="Y29:BK29"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:X23"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:X27"/>
+    <mergeCell ref="Y27:BK27"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:X33"/>
+    <mergeCell ref="Y34:AH34"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="AI34:AR34"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:X18"/>
+    <mergeCell ref="Y18:AH18"/>
+    <mergeCell ref="AI18:AR18"/>
+    <mergeCell ref="AS18:CI18"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="E17:X17"/>
     <mergeCell ref="Y17:AH17"/>
@@ -51744,32 +51741,49 @@
     <mergeCell ref="AS7:CI7"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:X4"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:X18"/>
-    <mergeCell ref="Y18:AH18"/>
-    <mergeCell ref="AI18:AR18"/>
-    <mergeCell ref="AS18:CI18"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:X33"/>
-    <mergeCell ref="Y34:AH34"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="AI34:AR34"/>
-    <mergeCell ref="AS17:CI17"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:X29"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="AS5:CI5"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:X22"/>
-    <mergeCell ref="Y22:BK22"/>
-    <mergeCell ref="Y23:BK23"/>
-    <mergeCell ref="Y28:BK28"/>
-    <mergeCell ref="Y29:BK29"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:X23"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:X27"/>
-    <mergeCell ref="Y27:BK27"/>
+    <mergeCell ref="Y4:AR4"/>
+    <mergeCell ref="AS4:CI4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="E7:X7"/>
+    <mergeCell ref="CB1:CI1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:V2"/>
+    <mergeCell ref="W2:BK2"/>
+    <mergeCell ref="BL2:BO2"/>
+    <mergeCell ref="BP2:BW2"/>
+    <mergeCell ref="BX2:CA2"/>
+    <mergeCell ref="CB2:CI2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:V1"/>
+    <mergeCell ref="W1:BK1"/>
+    <mergeCell ref="BL1:BO1"/>
+    <mergeCell ref="BP1:BW1"/>
+    <mergeCell ref="G48:BK48"/>
+    <mergeCell ref="G49:BK51"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:X28"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:X40"/>
+    <mergeCell ref="Y40:BK40"/>
+    <mergeCell ref="AS33:CI33"/>
+    <mergeCell ref="E34:X34"/>
+    <mergeCell ref="AS34:CI34"/>
+    <mergeCell ref="Y33:AH33"/>
+    <mergeCell ref="AI33:AR33"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:X39"/>
+    <mergeCell ref="Y39:BK39"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:X56"/>
+    <mergeCell ref="Y56:AH56"/>
+    <mergeCell ref="AI56:AR56"/>
+    <mergeCell ref="AS56:CI56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:X57"/>
+    <mergeCell ref="Y57:AH57"/>
+    <mergeCell ref="AI57:AR57"/>
+    <mergeCell ref="AS57:CI57"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
